--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -510,42 +510,42 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4738</v>
+        <v>4465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Comida_Rápida</t>
+          <t>Pescados</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4895</v>
+        <v>4054</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -573,12 +573,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-08-25</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Pastas</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -618,38 +618,38 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4596</v>
+        <v>4514</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-05-04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pastas</t>
+          <t>Vegano</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -664,50 +664,50 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5506</v>
+        <v>5167</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Postres</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Este</t>
         </is>
       </c>
     </row>
@@ -718,15 +718,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4317</v>
+        <v>5466</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2023-12-16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -745,23 +745,23 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Sur</t>
+          <t>Norte</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5685</v>
+        <v>3594</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -789,21 +789,21 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Comida_Rápida</t>
+          <t>Carnes</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -811,11 +811,11 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -826,24 +826,24 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5453</v>
+        <v>5548</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -857,19 +857,19 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Sur</t>
+          <t>Este</t>
         </is>
       </c>
     </row>
@@ -880,42 +880,42 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4022</v>
+        <v>3936</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Pastas</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -923,7 +923,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Este</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5367</v>
+        <v>6423</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -951,12 +951,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2024-04-12</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Comida_Rápida</t>
+          <t>Pescados</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -973,11 +973,11 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -988,15 +988,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4468</v>
+        <v>6915</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1015,23 +1015,23 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1050,38 +1050,38 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5113</v>
+        <v>6656</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ensaladas</t>
+          <t>Postres</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1096,15 +1096,15 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2965</v>
+        <v>2665</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1127,19 +1127,19 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -1150,46 +1150,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4304</v>
+        <v>5225</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Pescados</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1212,21 +1212,21 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3199</v>
+        <v>3309</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2024-07-20</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Pastas</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1243,11 +1243,11 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Este</t>
         </is>
       </c>
     </row>
@@ -1258,15 +1258,15 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5195</v>
+        <v>4997</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1285,23 +1285,23 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Sur</t>
+          <t>Norte</t>
         </is>
       </c>
     </row>
@@ -1312,15 +1312,15 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3926</v>
+        <v>6817</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1329,33 +1329,33 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ensaladas</t>
+          <t>Vegano</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1374,30 +1374,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4347</v>
+        <v>3832</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Pastas</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1428,16 +1428,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4755</v>
+        <v>6981</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-08-11</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Sur</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1482,21 +1482,21 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4072</v>
+        <v>3572</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Postres</t>
+          <t>Ensaladas</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1505,19 +1505,19 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Norte</t>
         </is>
       </c>
     </row>
@@ -1528,24 +1528,24 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6814</v>
+        <v>3031</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023-12-07</t>
+          <t>2024-01-06</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1555,23 +1555,23 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -1582,50 +1582,50 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5582</v>
+        <v>5664</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023-12-22</t>
+          <t>2024-04-20</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Pescados</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -1636,50 +1636,50 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3348</v>
+        <v>4328</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024-07-18</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Ensaladas</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -1690,29 +1690,29 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5413</v>
+        <v>6234</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pastas</t>
+          <t>Vegano</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1721,19 +1721,19 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1752,30 +1752,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2526</v>
+        <v>4051</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Pescados</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1783,11 +1783,11 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1806,30 +1806,30 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3935</v>
+        <v>6870</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-05-04</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pastas</t>
+          <t>Comida_Rápida</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1837,11 +1837,11 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Sur</t>
+          <t>Norte</t>
         </is>
       </c>
     </row>
@@ -1852,29 +1852,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3875</v>
+        <v>5068</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2024-10-10</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ensaladas</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1883,15 +1883,15 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1906,24 +1906,24 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3404</v>
+        <v>6678</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1933,11 +1933,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1945,11 +1945,11 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5258</v>
+        <v>3020</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1977,33 +1977,33 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2024-08-21</t>
+          <t>2024-09-28</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Ensaladas</t>
+          <t>Pastas</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -2014,50 +2014,50 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4173</v>
+        <v>3664</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023-11-24</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ensaladas</t>
+          <t>Pescados</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Norte</t>
         </is>
       </c>
     </row>
@@ -2068,29 +2068,29 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2903</v>
+        <v>4951</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023-12-14</t>
+          <t>2024-05-30</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Carnes</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2099,15 +2099,15 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2130,21 +2130,21 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6061</v>
+        <v>6892</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2024-06-29</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pescados</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2153,19 +2153,19 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2184,42 +2184,42 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4221</v>
+        <v>3907</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2023-12-02</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Pescados</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -2230,50 +2230,50 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4407</v>
+        <v>5681</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Ensaladas</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Este</t>
         </is>
       </c>
     </row>
@@ -2284,15 +2284,15 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5713</v>
+        <v>5177</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-05-26</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2323,11 +2323,11 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -2338,29 +2338,29 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6932</v>
+        <v>3825</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Postres</t>
+          <t>Pescados</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2369,19 +2369,19 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -2392,50 +2392,50 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5488</v>
+        <v>6501</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Ensaladas</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Norte</t>
         </is>
       </c>
     </row>
@@ -2446,15 +2446,15 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6641</v>
+        <v>5064</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2473,19 +2473,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2500,38 +2500,38 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2826</v>
+        <v>4780</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2024-10-13</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Pastas</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2539,11 +2539,11 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2988</v>
+        <v>4363</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2571,17 +2571,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-03-28</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Postres</t>
+          <t>Comida_Rápida</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2593,11 +2593,11 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Este</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2616,42 +2616,42 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4233</v>
+        <v>4453</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-04-05</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Ensaladas</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Norte</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2670,21 +2670,21 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5942</v>
+        <v>5564</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023-12-09</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Pastas</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2693,15 +2693,15 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2724,30 +2724,30 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3396</v>
+        <v>6751</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Comida_Rápida</t>
+          <t>Pastas</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2755,11 +2755,11 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -2770,38 +2770,38 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4368</v>
+        <v>5996</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-08-10</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Carnes</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2824,29 +2824,29 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3170</v>
+        <v>5679</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-05-12</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Comida_Rápida</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2855,7 +2855,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2863,11 +2863,11 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2886,42 +2886,42 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4994</v>
+        <v>4942</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-05-31</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Pastas</t>
+          <t>Pescados</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Este</t>
         </is>
       </c>
     </row>
@@ -2932,29 +2932,29 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3301</v>
+        <v>3419</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2024-09-22</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Carnes</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2963,7 +2963,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2971,11 +2971,11 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Sur</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3587</v>
+        <v>6926</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3003,12 +3003,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2024-05-18</t>
+          <t>2024-08-23</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pescados</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -3040,24 +3040,24 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5115</v>
+        <v>4245</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3067,23 +3067,23 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Sur</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -3094,15 +3094,15 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4334</v>
+        <v>5325</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3121,11 +3121,11 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3133,11 +3133,11 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Este</t>
         </is>
       </c>
     </row>
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -3156,21 +3156,21 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4359</v>
+        <v>4763</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Postres</t>
+          <t>Carnes</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -3202,46 +3202,46 @@
         </is>
       </c>
       <c r="B52" t="n">
+        <v>43</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>5618</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Vegano</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Positivo</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>20</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>4314</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2024-03-01</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Postres</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Neutro</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>4</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>8</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -3256,15 +3256,15 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4479</v>
+        <v>2999</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3273,33 +3273,33 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2024-10-03</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Pescados</t>
+          <t>Pastas</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Sur</t>
+          <t>Norte</t>
         </is>
       </c>
     </row>
@@ -3310,50 +3310,50 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4220</v>
+        <v>4164</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2024-09-19</t>
+          <t>2024-07-17</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Pastas</t>
+          <t>Postres</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K54" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -3364,50 +3364,50 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3557</v>
+        <v>3071</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2023-12-13</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Pastas</t>
+          <t>Carnes</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Norte</t>
         </is>
       </c>
     </row>
@@ -3418,50 +3418,50 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>5437</v>
+        <v>4104</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023-12-29</t>
+          <t>2024-08-25</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Carnes</t>
+          <t>Ensaladas</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3415</v>
+        <v>4736</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3489,29 +3489,29 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-04-23</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Comida_Rápida</t>
+          <t>Vegano</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -3526,15 +3526,15 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4761</v>
+        <v>2682</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3543,21 +3543,21 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-06-16</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Pastas</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3565,11 +3565,11 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>5716</v>
+        <v>6435</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3597,12 +3597,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2024-08-29</t>
+          <t>2023-12-23</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Postres</t>
+          <t>Carnes</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3611,19 +3611,19 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3642,21 +3642,21 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4881</v>
+        <v>6351</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Ensaladas</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3665,15 +3665,15 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3696,42 +3696,42 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5574</v>
+        <v>4694</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Postres</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -3742,15 +3742,15 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3212</v>
+        <v>6179</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3759,21 +3759,21 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Comida_Rápida</t>
+          <t>Vegano</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3781,11 +3781,11 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -3796,15 +3796,15 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4592</v>
+        <v>6610</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3813,12 +3813,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2023-12-23</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Comida_Rápida</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3827,7 +3827,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3835,11 +3835,11 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Sur</t>
+          <t>Norte</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3011</v>
+        <v>6469</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3867,21 +3867,21 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2024-04-21</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Ensaladas</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3889,11 +3889,11 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Este</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>6842</v>
+        <v>2968</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3921,12 +3921,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Pastas</t>
+          <t>Vegano</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3943,11 +3943,11 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3966,42 +3966,42 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2926</v>
+        <v>5045</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2024-08-08</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Postres</t>
+          <t>Carnes</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K66" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -4012,46 +4012,46 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5539</v>
+        <v>6796</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2024-04-20</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Pastas</t>
+          <t>Comida_Rápida</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4903</v>
+        <v>2930</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2024-04-06</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4093,23 +4093,23 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -4120,7 +4120,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -4128,30 +4128,30 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3084</v>
+        <v>2849</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Pastas</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -4159,11 +4159,11 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Sur</t>
+          <t>Este</t>
         </is>
       </c>
     </row>
@@ -4174,50 +4174,50 @@
         </is>
       </c>
       <c r="B70" t="n">
+        <v>20</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>5680</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2024-10-20</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Postres</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Positivo</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>24</v>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>4436</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Baja</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2024-06-10</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Carnes</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Positivo</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="K70" t="n">
-        <v>28</v>
-      </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3776</v>
+        <v>2886</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -4245,33 +4245,33 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Ensaladas</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -4290,38 +4290,38 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>6505</v>
+        <v>3987</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Ensaladas</t>
+          <t>Carnes</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -4344,21 +4344,21 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>6785</v>
+        <v>4311</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-04-06</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4367,15 +4367,15 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K73" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3940</v>
+        <v>5404</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -4407,12 +4407,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-08-08</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Pastas</t>
+          <t>Comida_Rápida</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -4429,11 +4429,11 @@
         </is>
       </c>
       <c r="K74" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Sur</t>
+          <t>Norte</t>
         </is>
       </c>
     </row>
@@ -4444,24 +4444,24 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>6247</v>
+        <v>4197</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2024-09-26</t>
+          <t>2024-02-17</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4471,23 +4471,23 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K75" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Norte</t>
         </is>
       </c>
     </row>
@@ -4498,15 +4498,15 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>5487</v>
+        <v>5168</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4515,21 +4515,21 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Pescados</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -4537,11 +4537,11 @@
         </is>
       </c>
       <c r="K76" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -4552,38 +4552,38 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5064</v>
+        <v>5889</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2024-04-14</t>
+          <t>2024-05-21</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Carnes</t>
+          <t>Pescados</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -4591,11 +4591,11 @@
         </is>
       </c>
       <c r="K77" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Sur</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -4614,42 +4614,42 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2897</v>
+        <v>5169</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2024-04-21</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Comida_Rápida</t>
+          <t>Pescados</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K78" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>6329</v>
+        <v>5750</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4677,12 +4677,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Pescados</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4691,19 +4691,19 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K79" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Este</t>
         </is>
       </c>
     </row>
@@ -4714,38 +4714,38 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>4988</v>
+        <v>6829</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4776,21 +4776,21 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>4024</v>
+        <v>6981</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2024-04-21</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Postres</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4799,19 +4799,19 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K81" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Este</t>
         </is>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -4830,21 +4830,21 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>3146</v>
+        <v>5093</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2024-05-12</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Postres</t>
+          <t>Comida_Rápida</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4853,7 +4853,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -4861,11 +4861,11 @@
         </is>
       </c>
       <c r="K82" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Este</t>
         </is>
       </c>
     </row>
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -4884,42 +4884,42 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>3269</v>
+        <v>3245</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2024-03-31</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Comida_Rápida</t>
+          <t>Vegano</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K83" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Este</t>
         </is>
       </c>
     </row>
@@ -4930,34 +4930,34 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>6657</v>
+        <v>6726</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-05-25</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Comida_Rápida</t>
+          <t>Vegano</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -4969,11 +4969,11 @@
         </is>
       </c>
       <c r="K84" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -4984,50 +4984,50 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4354</v>
+        <v>5081</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Pastas</t>
+          <t>Carnes</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K85" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4765</v>
+        <v>6232</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -5055,21 +5055,21 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-11-11</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Ensaladas</t>
+          <t>Pescados</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="K86" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -5092,50 +5092,50 @@
         </is>
       </c>
       <c r="B87" t="n">
+        <v>20</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>3780</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Comida_Rápida</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Negativo</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>25</v>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>5125</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Alta</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2024-04-21</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Pescados</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Negativo</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="K87" t="n">
-        <v>11</v>
-      </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Sur</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -5146,50 +5146,50 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>6663</v>
+        <v>5699</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Negativo</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K88" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -5200,29 +5200,29 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>3541</v>
+        <v>5843</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2024-05-26</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Pescados</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5231,19 +5231,19 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K89" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Este</t>
         </is>
       </c>
     </row>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -5262,21 +5262,21 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>5083</v>
+        <v>6518</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Comida_Rápida</t>
+          <t>Pastas</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -5293,11 +5293,11 @@
         </is>
       </c>
       <c r="K90" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Sur</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -5308,50 +5308,50 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4795</v>
+        <v>5526</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-08-04</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Carnes</t>
+          <t>Pastas</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K91" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Norte</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -5370,21 +5370,21 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>6173</v>
+        <v>6866</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Comida_Rápida</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5393,7 +5393,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -5401,11 +5401,11 @@
         </is>
       </c>
       <c r="K92" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Norte</t>
         </is>
       </c>
     </row>
@@ -5416,38 +5416,38 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>6360</v>
+        <v>4028</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Pescados</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -5455,11 +5455,11 @@
         </is>
       </c>
       <c r="K93" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Sur</t>
         </is>
       </c>
     </row>
@@ -5470,7 +5470,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>6293</v>
+        <v>2546</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -5487,12 +5487,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-04-23</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Postres</t>
+          <t>Vegano</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5501,19 +5501,19 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K94" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Norte</t>
         </is>
       </c>
     </row>
@@ -5524,38 +5524,38 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>6463</v>
+        <v>5966</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2024-08-12</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="K95" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -5578,46 +5578,46 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2704</v>
+        <v>3744</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2024-01-22</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Vegano</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="K96" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -5640,30 +5640,30 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2821</v>
+        <v>2870</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2024-08-15</t>
+          <t>2024-10-06</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Pescados</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Positivo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -5671,11 +5671,11 @@
         </is>
       </c>
       <c r="K97" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Sur</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5686,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>6102</v>
+        <v>4208</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5703,33 +5703,33 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023-11-19</t>
+          <t>2024-01-13</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Ensaladas</t>
+          <t>Bebidas</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Neutro</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K98" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Oeste</t>
+          <t>Este</t>
         </is>
       </c>
     </row>
@@ -5740,38 +5740,38 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>6750</v>
+        <v>6158</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Baja</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Ensaladas</t>
+          <t>Postres</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -5779,11 +5779,11 @@
         </is>
       </c>
       <c r="K99" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Norte</t>
+          <t>Oeste</t>
         </is>
       </c>
     </row>
@@ -5794,7 +5794,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2592</v>
+        <v>6698</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5811,33 +5811,33 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2024-09-12</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Bebidas</t>
+          <t>Vegano</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Negativo</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="K100" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Norte</t>
         </is>
       </c>
     </row>
@@ -5848,38 +5848,38 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>6752</v>
+        <v>3450</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>Baja</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2024-09-14</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Postres</t>
+          <t>Vegano</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Neutro</t>
+          <t>Positivo</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -5887,11 +5887,11 @@
         </is>
       </c>
       <c r="K101" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Este</t>
+          <t>Norte</t>
         </is>
       </c>
     </row>
